--- a/analysis/xlsx/2023/2023_VIP_유저.xlsx
+++ b/analysis/xlsx/2023/2023_VIP_유저.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>연도</t>
-  </si>
-  <si>
     <t>비율</t>
   </si>
   <si>
-    <t>공급가액</t>
-  </si>
-  <si>
-    <t>상위 10%</t>
-  </si>
-  <si>
-    <t>상위 20%</t>
-  </si>
-  <si>
-    <t>상위 30%</t>
+    <t>실제공급가액(억)</t>
+  </si>
+  <si>
+    <t>예측공급가액(억)</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>30%</t>
   </si>
 </sst>
 </file>
@@ -407,36 +407,36 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2023</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>4.46037</v>
+      </c>
       <c r="C2">
-        <v>446037000</v>
+        <v>5.570252302516929</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2023</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <v>8.283440000000001</v>
+      </c>
       <c r="C3">
-        <v>828344000</v>
+        <v>10.34462404077707</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2023</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>11.75798</v>
+      </c>
       <c r="C4">
-        <v>1175798000</v>
+        <v>14.6837404</v>
       </c>
     </row>
   </sheetData>
